--- a/public/leaderboard-beginner.xlsx
+++ b/public/leaderboard-beginner.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hamzaqureshi/Documents/Programming/Python/poker-tournament-leaderboard/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807A613B-8496-D44C-96A4-A0EFEFCDE580}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C929D0-ACD4-E94C-8CA2-52589CA466F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3260" yWindow="2160" windowWidth="28040" windowHeight="17440" xr2:uid="{3B0C8A87-987F-2A45-9BBE-286BBDB04A79}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Week 8</t>
-  </si>
-  <si>
-    <t>Week 9</t>
   </si>
   <si>
     <t>Total</t>
@@ -498,17 +495,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3AA912F-673C-7245-A1EF-7E56F8F0B9A8}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D1048576"/>
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -531,16 +528,13 @@
       <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4">
         <v>-30000</v>
@@ -557,17 +551,16 @@
       <c r="G2" s="4">
         <v>-30000</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="3">
+      <c r="H2" s="3">
         <v>77700</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="4">
         <v>-30000</v>
@@ -584,19 +577,16 @@
       <c r="G3" s="4">
         <v>-30000</v>
       </c>
-      <c r="H3" s="1">
-        <v>134600</v>
-      </c>
-      <c r="I3" s="3">
+      <c r="H3" s="3">
         <v>44600</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="4">
         <v>17800</v>
@@ -613,17 +603,16 @@
       <c r="G4" s="4">
         <v>9300</v>
       </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="3">
+      <c r="H4" s="3">
         <v>21500</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="4">
         <v>-30000</v>
@@ -640,19 +629,16 @@
       <c r="G5" s="4">
         <v>-30000</v>
       </c>
-      <c r="H5" s="1">
-        <v>105100</v>
-      </c>
-      <c r="I5" s="3">
+      <c r="H5" s="3">
         <v>15100</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="4">
         <v>-30000</v>
@@ -669,17 +655,16 @@
       <c r="G6" s="4">
         <v>37000</v>
       </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="3">
+      <c r="H6" s="3">
         <v>3800</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4">
         <v>-30000</v>
@@ -696,17 +681,16 @@
       <c r="G7" s="4">
         <v>31550</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="3">
+      <c r="H7" s="3">
         <v>-3250</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4">
         <v>-7500</v>
@@ -723,17 +707,16 @@
       <c r="G8" s="4">
         <v>-15450</v>
       </c>
-      <c r="H8" s="1"/>
-      <c r="I8" s="3">
+      <c r="H8" s="3">
         <v>-6950</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="4">
         <v>-30000</v>
@@ -750,19 +733,16 @@
       <c r="G9" s="4">
         <v>-24750</v>
       </c>
-      <c r="H9" s="1">
-        <v>-30000</v>
-      </c>
-      <c r="I9" s="3">
+      <c r="H9" s="3">
         <v>-15550</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="4">
         <v>-30000</v>
@@ -779,19 +759,16 @@
       <c r="G10" s="4">
         <v>23500</v>
       </c>
-      <c r="H10" s="1">
-        <v>-20000</v>
-      </c>
-      <c r="I10" s="3">
+      <c r="H10" s="3">
         <v>-18200</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4">
         <v>22500</v>
@@ -808,17 +785,16 @@
       <c r="G11" s="4">
         <v>-30000</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="3">
+      <c r="H11" s="3">
         <v>-53300</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="4">
         <v>36000</v>
@@ -835,17 +811,16 @@
       <c r="G12" s="4">
         <v>-30000</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="3">
+      <c r="H12" s="3">
         <v>-54000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="4">
         <v>-30000</v>
@@ -862,17 +837,16 @@
       <c r="G13" s="4">
         <v>-30000</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="3">
+      <c r="H13" s="3">
         <v>-55400</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="4">
         <v>-30000</v>
@@ -889,17 +863,16 @@
       <c r="G14" s="4">
         <v>-30000</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="3">
+      <c r="H14" s="3">
         <v>-57900</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="4">
         <v>-30000</v>
@@ -916,17 +889,16 @@
       <c r="G15" s="4">
         <v>-30000</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="3">
+      <c r="H15" s="3">
         <v>-97100</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4">
         <v>-30000</v>
@@ -943,17 +915,16 @@
       <c r="G16" s="4">
         <v>-30000</v>
       </c>
-      <c r="H16" s="1"/>
-      <c r="I16" s="3">
+      <c r="H16" s="3">
         <v>-104000</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="4">
         <v>-30000</v>
@@ -970,17 +941,16 @@
       <c r="G17" s="4">
         <v>-30000</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="3">
+      <c r="H17" s="3">
         <v>-107800</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="4">
         <v>-30000</v>
@@ -997,17 +967,16 @@
       <c r="G18" s="4">
         <v>-30000</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="3">
+      <c r="H18" s="3">
         <v>-120000</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4">
         <v>-30000</v>
@@ -1024,17 +993,16 @@
       <c r="G19" s="4">
         <v>-30000</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="3">
+      <c r="H19" s="3">
         <v>-120000</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4">
         <v>-30000</v>
@@ -1051,17 +1019,16 @@
       <c r="G20" s="4">
         <v>-30000</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="3">
+      <c r="H20" s="3">
         <v>-120000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4">
         <v>-30000</v>
@@ -1078,17 +1045,16 @@
       <c r="G21" s="4">
         <v>-30000</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="3">
+      <c r="H21" s="3">
         <v>-120000</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4">
         <v>-30000</v>
@@ -1105,12 +1071,11 @@
       <c r="G22" s="4">
         <v>-30000</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="3">
+      <c r="H22" s="3">
         <v>-120000</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -1119,7 +1084,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="2"/>
@@ -1128,7 +1093,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="2"/>
@@ -1137,7 +1102,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="2"/>
